--- a/EAL/Database/GassesDB.xlsx
+++ b/EAL/Database/GassesDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ProdRepoGC\EAL\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{289059BE-87AB-4F5E-A6B5-FA40755F0270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EE0A5-1413-46E0-932A-C50BB1654207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1712728-ABEC-4C68-9863-E770F5B249CD}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Restek_MXT-WAX_70670-273</t>
+  </si>
+  <si>
+    <t>Butyraldehyde</t>
+  </si>
+  <si>
+    <t>C4H8O</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0E3F58-2DDD-4507-80AC-D4AF417C4208}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,44 +3019,26 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C32" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="E32" s="3">
-        <v>74.12</v>
-      </c>
-      <c r="F32" s="3">
-        <v>117.7</v>
-      </c>
-      <c r="G32" s="3">
-        <v>110</v>
-      </c>
-      <c r="H32" s="3">
-        <v>20</v>
-      </c>
+        <v>10.18</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3">
-        <v>180</v>
-      </c>
-      <c r="M32" s="3">
-        <v>170</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3058,44 +3046,36 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C33" s="3">
-        <v>9.4499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="D33" s="3">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="E33" s="3">
-        <v>100.16</v>
+        <v>74.12</v>
       </c>
       <c r="F33" s="3">
-        <v>131</v>
+        <v>117.7</v>
       </c>
       <c r="G33" s="3">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="H33" s="3">
         <v>20</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="3">
         <v>180</v>
       </c>
@@ -3119,77 +3099,81 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>48</v>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="3">
-        <v>11.42</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D34" s="3">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="E34" s="3">
-        <v>119.38</v>
+        <v>100.16</v>
       </c>
       <c r="F34" s="3">
-        <v>61.15</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4">
-        <v>50</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="G34" s="3">
+        <v>260</v>
+      </c>
+      <c r="H34" s="3">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="3">
         <v>180</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="3">
         <v>170</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5" t="s">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C35" s="3">
-        <v>14.01</v>
+        <v>11.42</v>
       </c>
       <c r="D35" s="3">
-        <v>0.12</v>
+        <v>1.04</v>
       </c>
       <c r="E35" s="3">
-        <v>28.01</v>
+        <v>119.38</v>
       </c>
       <c r="F35" s="3">
-        <v>-191.5</v>
+        <v>61.15</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3197,10 +3181,10 @@
         <v>50</v>
       </c>
       <c r="J35" s="4">
-        <v>35</v>
-      </c>
-      <c r="K35" s="4">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="L35" s="5">
         <v>180</v>
@@ -3225,297 +3209,297 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="14">
-        <v>10.18</v>
-      </c>
-      <c r="D36" s="14">
-        <v>1.47</v>
-      </c>
-      <c r="E36" s="14">
-        <v>17.03</v>
-      </c>
-      <c r="F36" s="14">
-        <v>-33.340000000000003</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15">
+    <row r="36" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="15">
-        <v>25</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" s="14">
+      <c r="C36" s="3">
+        <v>14.01</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>28.01</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-191.5</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="4">
+        <v>50</v>
+      </c>
+      <c r="J36" s="4">
+        <v>35</v>
+      </c>
+      <c r="K36" s="4">
+        <v>9</v>
+      </c>
+      <c r="L36" s="5">
         <v>180</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="5">
         <v>170</v>
       </c>
       <c r="N36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14" t="s">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="17">
-        <v>9.59</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0.32</v>
-      </c>
-      <c r="E37" s="17">
-        <v>46.01</v>
-      </c>
-      <c r="F37" s="17">
-        <v>21</v>
-      </c>
-      <c r="G37" s="17">
-        <v>40</v>
-      </c>
-      <c r="H37" s="17">
-        <v>20</v>
-      </c>
-      <c r="I37" s="18">
-        <v>5</v>
-      </c>
-      <c r="J37" s="18">
-        <v>1</v>
-      </c>
-      <c r="K37" s="18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="L37" s="17">
+    <row r="37" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="14">
+        <v>10.18</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="E37" s="14">
+        <v>17.03</v>
+      </c>
+      <c r="F37" s="14">
+        <v>-33.340000000000003</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15">
+        <v>50</v>
+      </c>
+      <c r="J37" s="15">
+        <v>25</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="14">
         <v>180</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="14">
         <v>170</v>
       </c>
       <c r="N37" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O37" s="17" t="s">
+      <c r="O37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17" t="s">
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="3">
-        <v>12.35</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="E38" s="3">
-        <v>64.06</v>
-      </c>
-      <c r="F38" s="3">
-        <v>-10.050000000000001</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4">
+    <row r="38" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="17">
+        <v>9.59</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="E38" s="17">
+        <v>46.01</v>
+      </c>
+      <c r="F38" s="17">
+        <v>21</v>
+      </c>
+      <c r="G38" s="17">
+        <v>40</v>
+      </c>
+      <c r="H38" s="17">
+        <v>20</v>
+      </c>
+      <c r="I38" s="18">
         <v>5</v>
       </c>
-      <c r="J38" s="4">
-        <v>2</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
+      <c r="K38" s="18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L38" s="17">
         <v>180</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="17">
         <v>170</v>
       </c>
       <c r="N38" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5" t="s">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="17">
-        <v>10.46</v>
-      </c>
-      <c r="D39" s="17">
-        <v>0.97</v>
-      </c>
-      <c r="E39" s="17">
-        <v>34.08</v>
-      </c>
-      <c r="F39" s="17">
-        <v>-60.2</v>
-      </c>
-      <c r="G39" s="17">
-        <v>40</v>
-      </c>
-      <c r="H39" s="17">
-        <v>20</v>
-      </c>
-      <c r="I39" s="18">
-        <v>20</v>
-      </c>
-      <c r="J39" s="18">
-        <v>10</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="L39" s="17">
+    <row r="39" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12.35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="E39" s="3">
+        <v>64.06</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-10.050000000000001</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="5">
         <v>180</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="3">
         <v>170</v>
       </c>
       <c r="N39" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17" t="s">
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8.93</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.52</v>
-      </c>
-      <c r="E40" s="3">
-        <v>48.11</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L40" s="3">
+    <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="17">
+        <v>10.46</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="E40" s="17">
+        <v>34.08</v>
+      </c>
+      <c r="F40" s="17">
+        <v>-60.2</v>
+      </c>
+      <c r="G40" s="17">
+        <v>40</v>
+      </c>
+      <c r="H40" s="17">
+        <v>20</v>
+      </c>
+      <c r="I40" s="18">
+        <v>20</v>
+      </c>
+      <c r="J40" s="18">
+        <v>10</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L40" s="17">
         <v>180</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="17">
         <v>170</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3" t="s">
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3">
-        <v>8.69</v>
+        <v>8.93</v>
       </c>
       <c r="D41" s="3">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="E41" s="3">
-        <v>62.13</v>
+        <v>48.11</v>
       </c>
       <c r="F41" s="3">
-        <v>35.200000000000003</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3553,30 +3537,30 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3">
-        <v>8.61</v>
+        <v>8.69</v>
       </c>
       <c r="D42" s="3">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="E42" s="3">
-        <v>76.16</v>
+        <v>62.13</v>
       </c>
       <c r="F42" s="3">
-        <v>67.599999999999994</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>99</v>
+      <c r="I42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.5</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>99</v>
@@ -3606,30 +3590,30 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C43" s="3">
-        <v>10.61</v>
+        <v>8.61</v>
       </c>
       <c r="D43" s="3">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="E43" s="3">
-        <v>131.38999999999999</v>
+        <v>76.16</v>
       </c>
       <c r="F43" s="3">
-        <v>87.2</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="4">
-        <v>100</v>
-      </c>
-      <c r="J43" s="4">
-        <v>25</v>
+      <c r="I43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>99</v>
@@ -3659,22 +3643,22 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3">
-        <v>9.33</v>
+        <v>10.61</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="E44" s="3">
-        <v>165.83</v>
+        <v>131.38999999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>121.1</v>
+        <v>87.2</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3710,6 +3694,59 @@
         <v>28</v>
       </c>
     </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9.33</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>165.83</v>
+      </c>
+      <c r="F45" s="3">
+        <v>121.1</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4">
+        <v>100</v>
+      </c>
+      <c r="J45" s="4">
+        <v>25</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L45" s="3">
+        <v>180</v>
+      </c>
+      <c r="M45" s="3">
+        <v>170</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
